--- a/Dataset/Principal plane Dataset_biochemical and geometry information.xlsx
+++ b/Dataset/Principal plane Dataset_biochemical and geometry information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LX\教学程序\PROSEPCT+BRDF\PROSPECULAR_matlab\Measurements 上传用 部分数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB7CD2D-076B-4611-9804-FA34477E52FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF502E-EFD0-40F7-A483-CD87EFC38005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B0F01C8-E78A-49E3-87BB-961F1BD4CC98}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>dj-30-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,14 @@
   </si>
   <si>
     <t>Number of leaf samples: 56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of SZAs: 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of VZAs: 13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41C1F5B-E3B8-45E9-8186-A464CE2D3868}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,6 +1542,20 @@
       </c>
       <c r="D21" s="51"/>
     </row>
+    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D19:D21"/>
@@ -1548,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E0819-5745-4C2C-817D-3442B4ECAE56}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
